--- a/docs/data/soccer_shoes.xlsx
+++ b/docs/data/soccer_shoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{556B7DF5-33B8-4C5B-9091-8A879F875ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12BD626-DAC4-4A85-9FB9-057BB0EAE2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8205" windowWidth="29040" windowHeight="16440" xr2:uid="{9D9638EA-10E3-3242-B778-8D8F864FEB58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>shoe_a</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>performance: a series of biomechanical studies', Footwear Science, 2: 1, 3 — 11</t>
+  </si>
+  <si>
+    <t>shoe_c</t>
   </si>
 </sst>
 </file>
@@ -436,9 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A561CCF5-6956-6D42-BCFE-E6BDAE2C7AF7}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -450,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>

--- a/docs/data/soccer_shoes.xlsx
+++ b/docs/data/soccer_shoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12BD626-DAC4-4A85-9FB9-057BB0EAE2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0250AE-BF91-464E-9E20-F4E0BC4B32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8205" windowWidth="29040" windowHeight="16440" xr2:uid="{9D9638EA-10E3-3242-B778-8D8F864FEB58}"/>
   </bookViews>
